--- a/medicine/Enfance/Les_Petits_Chats_(série_littéraire)/Les_Petits_Chats_(série_littéraire).xlsx
+++ b/medicine/Enfance/Les_Petits_Chats_(série_littéraire)/Les_Petits_Chats_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Petits_Chats_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Les_Petits_Chats_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La collection Les petits chats est écrite par Stéphanie Dunand-Pallaz (alias Nini Bombardier), illustrée par Sophie Turrel et éditée chez Balivernes Éditions. Ces livres pour enfants (3 à 7 ans) sont des histoires de petits chats dont chaque titre est un jeu de mots commençant par le mot chat. Chaque histoire présente un chat dont le caractère correspond à ce jeu de mots.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Petits_Chats_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Les_Petits_Chats_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est initialement avec Magnard Jeunesse, en 2003, que ces histoires ont vu le jour sous le nom histoires de chats, puis, après 4 albums, l'éditeur a laissé de côté sa branche jeunesse.
 Dunand-Pallaz et Turrel ont contacté les éditions Balivernes qui accepté le projet et publié de nouveaux titres, Le chat Rabia, et Les chats Taignes, puis ont réédité Le chat Touillis. En 2011 a lieu la réédition du Chat Mailleur. 
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Petits_Chats_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Les_Petits_Chats_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Collection "Les Petits Chats" :
 Collection "Les Mini-minets" :
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Petits_Chats_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Les_Petits_Chats_(série_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,6 +602,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
